--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,82 +138,94 @@
     <t>1</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-complete-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sterile-spec</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-spec</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-spec</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-spec</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bru-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-diar-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-camp-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hiv-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-inf-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influ-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-ctng</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-sash</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-ctng</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-inf-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-org</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-sashec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-pneu-org</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-gen-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hiv-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bru-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-sashec</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-bot-org</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-gen-org</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,6 +818,46 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CH ELM code system defines the value set URLs as codes to map in the concept maps the leading codes, which must be completed with additional codes.</t>
+    <t>The codes contained in this code system represent URLs of value sets that can be used as target codes in ConceptMaps. These value sets define the codes that are permitted for specifying the organism or specimen in relation to the leading code.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influ-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-org</t>
@@ -538,7 +541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -858,6 +861,16 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tub-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-tul-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-virus-cult-org</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,6 +877,26 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -171,15 +171,24 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-chol-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cjd-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ebol-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-ehec-tox-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
   </si>
   <si>
@@ -201,6 +210,9 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mal-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-maldi-tof-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mea-org</t>
   </si>
   <si>
@@ -220,6 +232,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sal-org-complete</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-shi-org</t>
@@ -547,7 +562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -897,6 +912,56 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -192,13 +192,16 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-haem-org</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hanta-org</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-hiv-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-inf-org</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influ-org</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-influenza-hxny-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-leg-org</t>
@@ -562,7 +565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,6 +965,16 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,9 +174,6 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cjd-org</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-cpe-org</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-diph-org</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-men-org</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpox-org</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-mpx-ctng</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-spec</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sterile-spec</t>
@@ -565,7 +568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -975,6 +978,16 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
